--- a/Sistema Veiculo.xlsx
+++ b/Sistema Veiculo.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\2 ETIM DS\2ETIMDS - NICOLAS E MARIA EDUARDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudin\Documents\GitHub\Veiculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA2CAB3-B5AF-446A-89AE-17333AD70877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -80,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,6 +215,127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742951</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector: Angulado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CF3D3E-1FB6-56B7-F55C-B8DEA43E99A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3562351" y="1400174"/>
+          <a:ext cx="1409700" cy="552451"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99324"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724027</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector: Angulado 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179BCFEA-61CE-4E33-86C0-DECFC6CEE814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1243014" y="1290637"/>
+          <a:ext cx="1400174" cy="781052"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100340"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,71 +600,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -539,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -547,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -555,7 +688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -563,7 +696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -571,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
@@ -579,12 +712,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="D19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>